--- a/legendre_out/DATA/p2/p2IntegrandSplinePoints0.100000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandSplinePoints0.100000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>3.187844545404628e-177</v>
+        <v>3.130534026040605e-177</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>3.094072611613679e-177</v>
+        <v>3.081705501568486e-177</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>3.019564865885058e-177</v>
+        <v>3.04236097072672e-177</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>2.962617275215561e-177</v>
+        <v>3.011622373111674e-177</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>2.92152580660168e-177</v>
+        <v>2.988611648319557e-177</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>2.894586427040019e-177</v>
+        <v>2.972450735946633e-177</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>2.880095103527169e-177</v>
+        <v>2.962261575589159e-177</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>2.87634780305977e-177</v>
+        <v>2.957166106843426e-177</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>2.881640492634397e-177</v>
+        <v>2.956286269305681e-177</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>2.894269139247675e-177</v>
+        <v>2.958744002572197e-177</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>2.912529709896172e-177</v>
+        <v>2.963661246239231e-177</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>2.934718171576503e-177</v>
+        <v>2.970159939903051e-177</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>2.959130491285304e-177</v>
+        <v>2.97736202315993e-177</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>2.984062636019112e-177</v>
+        <v>2.984389435606115e-177</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>3.007810572774561e-177</v>
+        <v>2.990364116837879e-177</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>3.028670268548254e-177</v>
+        <v>2.994408006451491e-177</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>3.044937690336813e-177</v>
+        <v>2.995643044043214e-177</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>3.054908805136795e-177</v>
+        <v>2.993191169209308e-177</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>3.05693704617558e-177</v>
+        <v>2.986202190725381e-177</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>3.050531477603458e-177</v>
+        <v>2.974386359299888e-177</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>3.036271422850474e-177</v>
+        <v>2.957972965213137e-177</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>3.014776565717228e-177</v>
+        <v>2.937210872160784e-177</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>2.986666590004321e-177</v>
+        <v>2.912348943838497e-177</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>2.952561179512305e-177</v>
+        <v>2.883636043941906e-177</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>2.91308001804187e-177</v>
+        <v>2.851321036166753e-177</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>2.868842789393578e-177</v>
+        <v>2.815652784208672e-177</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>2.820469177367961e-177</v>
+        <v>2.776880151763278e-177</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>2.76857886576575e-177</v>
+        <v>2.735252002526342e-177</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>2.713791538387483e-177</v>
+        <v>2.691017200193483e-177</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>2.656726879033763e-177</v>
+        <v>2.644424608460369e-177</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>2.59800457150511e-177</v>
+        <v>2.595723091022604e-177</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>2.538244299602282e-177</v>
+        <v>2.545161511575983e-177</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>2.478065747125802e-177</v>
+        <v>2.492988733816114e-177</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>2.418088597876194e-177</v>
+        <v>2.439453621438591e-177</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>2.358862893367749e-177</v>
+        <v>2.38478992127334e-177</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>2.300472577437374e-177</v>
+        <v>2.329130206905579e-177</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>2.242810297415492e-177</v>
+        <v>2.272565528246048e-177</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>2.185768117382755e-177</v>
+        <v>2.215186808602857e-177</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>2.129238101419585e-177</v>
+        <v>2.157084971283895e-177</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>2.073112313606484e-177</v>
+        <v>2.098350939597124e-177</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>2.017282818023879e-177</v>
+        <v>2.039075636850426e-177</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.961641678752417e-177</v>
+        <v>1.979349986351921e-177</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>1.906080959872523e-177</v>
+        <v>1.919264911409493e-177</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>1.850492725464627e-177</v>
+        <v>1.858911335331024e-177</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>1.794769039609372e-177</v>
+        <v>1.798380181424635e-177</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>1.738801966387188e-177</v>
+        <v>1.737762372998209e-177</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>1.682483569878575e-177</v>
+        <v>1.677148833359709e-177</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.625705914163957e-177</v>
+        <v>1.616630485817015e-177</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.568361063323985e-177</v>
+        <v>1.55629825367825e-177</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.510359353643706e-177</v>
+        <v>1.496247857239289e-177</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>1.451846028544538e-177</v>
+        <v>1.436636686787982e-177</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>1.393129297158711e-177</v>
+        <v>1.377664915876554e-177</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>1.334520646764002e-177</v>
+        <v>1.319533578666116e-177</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>1.276331564638188e-177</v>
+        <v>1.262443709317782e-177</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>1.218873538059274e-177</v>
+        <v>1.206596341992889e-177</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>1.162458054305035e-177</v>
+        <v>1.15219251085255e-177</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>1.107396600653325e-177</v>
+        <v>1.099433250057953e-177</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>1.054000664381926e-177</v>
+        <v>1.048519593770221e-177</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>1.002581732768832e-177</v>
+        <v>9.996525761506747e-178</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>9.534512930918245e-178</v>
+        <v>9.530332313604351e-178</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>9.069208326286961e-178</v>
+        <v>9.088625935606332e-178</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>8.632924066705937e-178</v>
+        <v>8.673347109640896e-178</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>8.226361047692151e-178</v>
+        <v>8.284718227325855e-178</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>7.847813800981721e-178</v>
+        <v>7.921179369328731e-178</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>7.495465189843102e-178</v>
+        <v>7.581087907320761e-178</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>7.167498077546106e-178</v>
+        <v>7.2628012129745e-178</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>6.862095327359153e-178</v>
+        <v>6.96467665796116e-178</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>6.577439802550776e-178</v>
+        <v>6.685071613952054e-178</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>6.311714366390614e-178</v>
+        <v>6.42234345261958e-178</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>6.063101882147177e-178</v>
+        <v>6.174849545635032e-178</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>5.829785213089065e-178</v>
+        <v>5.940947264669778e-178</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>5.609947222485783e-178</v>
+        <v>5.718993981396101e-178</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>5.401770773605911e-178</v>
+        <v>5.507347067485353e-178</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>5.203438729718341e-178</v>
+        <v>5.304363894609203e-178</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>5.013133954091724e-178</v>
+        <v>5.108401834439064e-178</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>4.829039309995456e-178</v>
+        <v>4.917818258647125e-178</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>4.649337660698174e-178</v>
+        <v>4.730970538904785e-178</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>4.472211869468545e-178</v>
+        <v>4.546216046883477e-178</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>4.295844799575926e-178</v>
+        <v>4.361912154255352e-178</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>4.118419314288977e-178</v>
+        <v>4.176416232691832e-178</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>3.938118276876596e-178</v>
+        <v>3.98808565386459e-178</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>3.75312455060743e-178</v>
+        <v>3.795277789445038e-178</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>3.561620998750857e-178</v>
+        <v>3.596350011105346e-178</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>3.361790484575535e-178</v>
+        <v>3.389659690516936e-178</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>3.151815871350075e-178</v>
+        <v>3.173564199351187e-178</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>2.929880022343923e-178</v>
+        <v>2.946420909280331e-178</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>2.694165800825705e-178</v>
+        <v>2.706587191975762e-178</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>2.444157101932968e-178</v>
+        <v>2.453687488893957e-178</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>2.186100770177402e-178</v>
+        <v>2.193932651105652e-178</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>1.928434233154328e-178</v>
+        <v>1.935666929872081e-178</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>1.679596042338287e-178</v>
+        <v>1.687235670995967e-178</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>1.448024749203871e-178</v>
+        <v>1.456984220280084e-178</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>1.242158905226574e-178</v>
+        <v>1.253257923528108e-178</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>1.070437061880956e-178</v>
+        <v>1.084402126542784e-178</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>9.412977706417598e-179</v>
+        <v>9.587621751270402e-179</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>8.631795829842106e-179</v>
+        <v>8.846834150842772e-179</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>8.445210503829878e-179</v>
+        <v>8.705111922173617e-179</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>8.937607243129695e-179</v>
+        <v>9.245908523293547e-179</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>1.019337156249253e-178</v>
+        <v>1.055267741223543e-178</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>1.229688897666395e-178</v>
+        <v>1.270887204702655e-178</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>1.035950810849432e-189</v>
+        <v>1.0422300841298e-189</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>1.236883971229765e-189</v>
+        <v>1.246033430840973e-189</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>1.108675578402278e-189</v>
+        <v>1.129303462738924e-189</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>1.257758742302729e-189</v>
+        <v>1.26759339434018e-189</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>1.406577639442415e-189</v>
+        <v>1.401935954022943e-189</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>1.358518079201355e-189</v>
+        <v>1.352854168869257e-189</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>1.90434243287996e-189</v>
+        <v>1.910543347808137e-189</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>4.49442075137688e-189</v>
+        <v>4.51297680167652e-189</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>8.521513228428691e-189</v>
+        <v>8.547440414965184e-189</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>9.391306658876396e-189</v>
+        <v>9.424790350676653e-189</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>8.69567455666994e-189</v>
+        <v>8.714176403445354e-189</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>7.875092461575579e-189</v>
+        <v>7.862345946912786e-189</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>6.877358614409206e-189</v>
+        <v>6.85883411617744e-189</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>5.838088277440129e-189</v>
+        <v>5.83597752108207e-189</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>5.010169103117719e-189</v>
+        <v>5.018576090179722e-189</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>4.382995332583787e-189</v>
+        <v>4.386180976212605e-189</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>3.887084385806853e-189</v>
+        <v>3.876847091250794e-189</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>3.548392133346028e-189</v>
+        <v>3.551316738065283e-189</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>3.114708144343044e-189</v>
+        <v>3.122844906996146e-189</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>2.714160286207502e-189</v>
+        <v>2.710353879753774e-189</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>2.475026813956923e-189</v>
+        <v>2.46932992309107e-189</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>2.207052801827272e-189</v>
+        <v>2.202394038260067e-189</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>1.934404822777375e-189</v>
+        <v>1.931594893746391e-189</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>1.704706431160293e-189</v>
+        <v>1.70390788668474e-189</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>1.508334088006584e-189</v>
+        <v>1.509207905363306e-189</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>1.329462525227348e-189</v>
+        <v>1.331183988835032e-189</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>1.153618160053097e-189</v>
+        <v>1.154954439842156e-189</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>9.801189860700246e-190</v>
+        <v>9.802206885903258e-190</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>8.163458494668544e-190</v>
+        <v>8.152097757149698e-190</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>6.696689253584702e-190</v>
+        <v>6.681280114306276e-190</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>5.4310206557517e-190</v>
+        <v>5.422081464534948e-190</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>4.340003630531748e-190</v>
+        <v>4.342223976486729e-190</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>3.393407524128788e-190</v>
+        <v>3.405112432886986e-190</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>2.566532119412501e-190</v>
+        <v>2.580713567676632e-190</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>1.871149775527876e-190</v>
+        <v>1.882269407631225e-190</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>1.333656786614466e-190</v>
+        <v>1.340391382023545e-190</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>9.580959280550614e-191</v>
+        <v>9.618891871956362e-191</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>7.022916325477095e-191</v>
+        <v>7.043493208005443e-191</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>5.193747449595316e-191</v>
+        <v>5.203076225832548e-191</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>3.826016110141011e-191</v>
+        <v>3.827069460368166e-191</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>2.836861147807974e-191</v>
+        <v>2.832058646487761e-191</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>2.150252651156046e-191</v>
+        <v>2.141556321540585e-191</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>1.690160708745906e-191</v>
+        <v>1.679075022876737e-191</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>1.380555409137275e-191</v>
+        <v>1.368127287845349e-191</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>1.14825180444113e-191</v>
+        <v>1.135086822558253e-191</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>9.591481064883434e-192</v>
+        <v>9.456331146332225e-192</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>8.07540026365586e-192</v>
+        <v>7.940049060846366e-192</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>6.883625309969937e-192</v>
+        <v>6.75083836032786e-192</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>5.965505873067609e-192</v>
+        <v>5.837515435980213e-192</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>5.270391622191989e-192</v>
+        <v>5.148896679008085e-192</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>4.747632226584908e-192</v>
+        <v>4.633798480614867e-192</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>4.34657735548867e-192</v>
+        <v>4.241037232004414e-192</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>4.016576678145436e-192</v>
+        <v>3.919429324380451e-192</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>3.713683718650268e-192</v>
+        <v>3.624568055266188e-192</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>3.427162901174041e-192</v>
+        <v>3.345619519260429e-192</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>3.156544170858688e-192</v>
+        <v>3.082127194641705e-192</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>2.901360478141588e-192</v>
+        <v>2.833637597732497e-192</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>2.661144773459751e-192</v>
+        <v>2.599697244854922e-192</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>2.435430007250314e-192</v>
+        <v>2.379852652331221e-192</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>2.22374912995032e-192</v>
+        <v>2.173650336483546e-192</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>2.025635091997096e-192</v>
+        <v>1.980636813634323e-192</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>1.840620843827679e-192</v>
+        <v>1.800358600105696e-192</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>1.66823933587913e-192</v>
+        <v>1.632362212219832e-192</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>1.508023518588741e-192</v>
+        <v>1.476194166299125e-192</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>1.359506342393567e-192</v>
+        <v>1.331400978665737e-192</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>1.222220757730743e-192</v>
+        <v>1.197529165641907e-192</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>1.095699715037352e-192</v>
+        <v>1.074125243549824e-192</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>9.794761647506435e-193</v>
+        <v>9.607357287118397e-193</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>8.730830573076936e-193</v>
+        <v>8.569071374501364e-193</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>7.760533431455964e-193</v>
+        <v>7.621859860869141e-193</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>6.879199727015756e-193</v>
+        <v>6.761187909444991e-193</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>6.082158964127211e-193</v>
+        <v>5.982520683450873e-193</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>5.364740647161689e-193</v>
+        <v>5.281323346109194e-193</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>4.722274280490276e-193</v>
+        <v>4.65306106064209e-193</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>4.150089368484914e-193</v>
+        <v>4.093198990272541e-193</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>3.643515415516652e-193</v>
+        <v>3.597202298222651e-193</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>3.197881925956664e-193</v>
+        <v>3.160536147714643e-193</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>2.808518404176707e-193</v>
+        <v>2.778665701971315e-193</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>2.470754354547929e-193</v>
+        <v>2.447056124214867e-193</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>2.179919281441689e-193</v>
+        <v>2.161172577667706e-193</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>1.931342689229243e-193</v>
+        <v>1.916480225552137e-193</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>1.720354082282175e-193</v>
+        <v>1.708444231090786e-193</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>1.542282964971722e-193</v>
+        <v>1.532529757505942e-193</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>1.392458841669244e-193</v>
+        <v>1.384201968020013e-193</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>1.266211216746049e-193</v>
+        <v>1.258926025855352e-193</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>1.158869594573608e-193</v>
+        <v>1.15216709423448e-193</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>1.06576347952322e-193</v>
+        <v>1.059390336379742e-193</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>9.822226318995116e-194</v>
+        <v>9.760611636553361e-194</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>9.044912711398648e-194</v>
+        <v>8.985316073241236e-194</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>8.317819831255686e-194</v>
+        <v>8.260316979617961e-194</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>7.63908593912725e-194</v>
+        <v>7.583744025309978e-194</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>7.006849295575287e-194</v>
+        <v>6.953726879944639e-194</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>6.419248161160803e-194</v>
+        <v>6.368395213148371e-194</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>5.874420796445124e-194</v>
+        <v>5.825878694547917e-194</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>5.37050546198936e-194</v>
+        <v>5.324306993769802e-194</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>4.905640418355288e-194</v>
+        <v>4.861809780441219e-194</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>4.477963926104003e-194</v>
+        <v>4.436516724188674e-194</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>4.085614245796829e-194</v>
+        <v>4.046557494638912e-194</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>3.726729637994937e-194</v>
+        <v>3.690061761418518e-194</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>3.399448363259979e-194</v>
+        <v>3.365159194154558e-194</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>3.101908682153109e-194</v>
+        <v>3.069979462473604e-194</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>2.832248855235541e-194</v>
+        <v>2.802652236002286e-194</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>2.588607143068843e-194</v>
+        <v>2.561307184367585e-194</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>2.369121806214214e-194</v>
+        <v>2.344073977196116e-194</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>2.171931105232979e-194</v>
+        <v>2.149082284114622e-194</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>1.995173300686391e-194</v>
+        <v>1.974461774749771e-194</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>1.836986653135935e-194</v>
+        <v>1.818342118728461e-194</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>1.695509423142852e-194</v>
+        <v>1.678852985677351e-194</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>1.568879871268416e-194</v>
+        <v>1.554124045223132e-194</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>1.455236258074066e-194</v>
+        <v>1.442284966992656e-194</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>1.35271684412107e-194</v>
+        <v>1.341465420612606e-194</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>1.259459889970752e-194</v>
+        <v>1.249795075709725e-194</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>1.173603656184403e-194</v>
+        <v>1.165403601910717e-194</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>1.093286403323425e-194</v>
+        <v>1.086420668842401e-194</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>1.016878827868675e-194</v>
+        <v>1.011210395961175e-194</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>9.439935009707287e-195</v>
+        <v>9.393895374511482e-195</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>8.746560490843751e-195</v>
+        <v>8.709914816634143e-195</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>8.088923768331824e-195</v>
+        <v>8.060498975280051e-195</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>7.467283888407513e-195</v>
+        <v>7.445984539749845e-195</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>6.881899897306586e-195</v>
+        <v>6.866708199343924e-195</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>6.333030841265585e-195</v>
+        <v>6.323006643363458e-195</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>5.820935766520251e-195</v>
+        <v>5.815216561108822e-195</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>5.345873719306396e-195</v>
+        <v>5.343674641880462e-195</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>4.908103745860466e-195</v>
+        <v>4.908717574979447e-195</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>4.507884892418252e-195</v>
+        <v>4.510682049706208e-195</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>4.145476205215773e-195</v>
+        <v>4.149904755361389e-195</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>3.821136730488906e-195</v>
+        <v>3.826722381245501e-195</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>3.535125514473956e-195</v>
+        <v>3.541471616659479e-195</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>3.287701603406789e-195</v>
+        <v>3.294489150903823e-195</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>3.079124043523335e-195</v>
+        <v>3.08611167327909e-195</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>2.909651881059796e-195</v>
+        <v>2.916675873086115e-195</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>2.779263113160076e-195</v>
+        <v>2.786233450676739e-195</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>2.684950265185458e-195</v>
+        <v>2.691808783102678e-195</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>2.621905599882249e-195</v>
+        <v>2.62860074801138e-195</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>2.585296554685342e-195</v>
+        <v>2.591783049727897e-195</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>2.570290567029539e-195</v>
+        <v>2.576529392577191e-195</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>2.572055074349679e-195</v>
+        <v>2.578013480884257e-195</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>2.585757514080605e-195</v>
+        <v>2.591409018974102e-195</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>2.606565323657142e-195</v>
+        <v>2.611889711171707e-195</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>2.629645940514131e-195</v>
+        <v>2.634629261802074e-195</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>2.650166802086417e-195</v>
+        <v>2.654801375190208e-195</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>2.663295345808817e-195</v>
+        <v>2.667579755661084e-195</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>2.66419900911618e-195</v>
+        <v>2.668138107539712e-195</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>2.64804522944333e-195</v>
+        <v>2.651650135151073e-195</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>2.61033842952111e-195</v>
+        <v>2.613626211578848e-195</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>2.550710980730161e-195</v>
+        <v>2.553700781088173e-195</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>2.471561929968269e-195</v>
+        <v>2.474272364665257e-195</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>2.375341315748478e-195</v>
+        <v>2.377790427014081e-195</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>2.264499176583965e-195</v>
+        <v>2.26670443283876e-195</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>2.141485550987784e-195</v>
+        <v>2.143463846843282e-195</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>2.008750477473024e-195</v>
+        <v>2.010518133731673e-195</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>1.868743994552713e-195</v>
+        <v>1.870316758207896e-195</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>1.723916140740068e-195</v>
+        <v>1.725309184976107e-195</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>1.576716954548119e-195</v>
+        <v>1.577944878740269e-195</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>1.42959647448989e-195</v>
+        <v>1.430673304204345e-195</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>1.285004739078608e-195</v>
+        <v>1.285943926072495e-195</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>1.145391786827295e-195</v>
+        <v>1.146206209048679e-195</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>1.013115123833207e-195</v>
+        <v>1.013817100948404e-195</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>8.892158382419235e-196</v>
+        <v>8.89817352535764e-196</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>7.737553948326774e-196</v>
+        <v>7.742682555932794e-196</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>6.667719341149203e-196</v>
+        <v>6.672077815475936e-196</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>5.68303596598119e-196</v>
+        <v>5.686739018253661e-196</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>4.783885227918711e-196</v>
+        <v>4.787045878533881e-196</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>3.970648532056395e-196</v>
+        <v>3.973378110583147e-196</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>3.243707283489331e-196</v>
+        <v>3.246115428668481e-196</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>2.603442887312344e-196</v>
+        <v>2.605637547056632e-196</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>2.050236748621098e-196</v>
+        <v>2.052324180015195e-196</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>1.584470272510378e-196</v>
+        <v>1.586555041810882e-196</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>1.206524864075123e-196</v>
+        <v>1.208709846710562e-196</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>9.16781928410766e-197</v>
+        <v>9.191683089815938e-197</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>7.156228706122065e-197</v>
+        <v>7.18310142890807e-197</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>6.014308121662367e-197</v>
+        <v>6.045016157178967e-197</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>5.44626243809613e-197</v>
+        <v>5.479341779110085e-197</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>4.950538188251897e-197</v>
+        <v>4.980673088601377e-197</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>4.021503409110567e-197</v>
+        <v>4.039499813033867e-197</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>2.52577964521865e-197</v>
+        <v>2.523739471989119e-197</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>1.307534643491061e-197</v>
+        <v>1.292409215912951e-197</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>8.519411460811042e-198</v>
+        <v>8.381677733306989e-198</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>7.961047066455889e-198</v>
+        <v>7.899484010343011e-198</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>7.526487325374557e-198</v>
+        <v>7.519855073560068e-198</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>6.421051964350372e-198</v>
+        <v>6.434588943603451e-198</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>4.947396126537918e-198</v>
+        <v>4.957897155014151e-198</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>3.409520631701138e-198</v>
+        <v>3.405367672537729e-198</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>2.102569066122862e-198</v>
+        <v>2.083424894393418e-198</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>1.147031581311704e-198</v>
+        <v>1.117799284062162e-198</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>5.035107360336759e-199</v>
+        <v>4.688038983426113e-199</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>1.267122492320703e-199</v>
+        <v>9.065100826034856e-200</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>-2.865816014938206e-200</v>
+        <v>-6.244711515860292e-200</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>-7.894773167498536e-201</v>
+        <v>-3.627820088877227e-200</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>1.437081291211293e-199</v>
+        <v>1.233700220955398e-199</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>3.808562656600294e-199</v>
+        <v>3.707098248201565e-199</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>6.582553553923799e-199</v>
+        <v>6.599534783105371e-199</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>9.429881751007467e-199</v>
+        <v>9.572595080214373e-199</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>1.34585432565579e-198</v>
+        <v>1.367500968223956e-198</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>2.004585362587457e-198</v>
+        <v>2.021750703981972e-198</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>2.732413215574841e-198</v>
+        <v>2.738895063414913e-198</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>3.24632088530041e-198</v>
+        <v>3.245257832391191e-198</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>3.437701433565278e-198</v>
+        <v>3.436283819098539e-198</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>3.420176945903618e-198</v>
+        <v>3.422907399681037e-198</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>3.321789395845279e-198</v>
+        <v>3.330045531774452e-198</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>3.270572449064728e-198</v>
+        <v>3.282607045362077e-198</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>3.350697536020408e-198</v>
+        <v>3.362589936232352e-198</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>3.500087426330863e-198</v>
+        <v>3.508915769945967e-198</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>3.626220966376972e-198</v>
+        <v>3.630722537746021e-198</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>3.636577002539586e-198</v>
+        <v>3.637148230875581e-198</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>3.447446538061233e-198</v>
+        <v>3.446038949164486e-198</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>3.093627057260444e-198</v>
+        <v>3.092348025285063e-198</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>2.694763417399756e-198</v>
+        <v>2.694874341699066e-198</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>2.372344350487764e-198</v>
+        <v>2.374238884328404e-198</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>2.21903017159547e-198</v>
+        <v>2.222386477728678e-198</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>2.203711360698103e-198</v>
+        <v>2.208145794390274e-198</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>2.262069141022744e-198</v>
+        <v>2.267311642771895e-198</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>2.329784329695523e-198</v>
+        <v>2.33567842737609e-198</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>2.342537907526034e-198</v>
+        <v>2.349040716030844e-198</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>2.253792245957325e-198</v>
+        <v>2.260935573438282e-198</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>2.083713555373146e-198</v>
+        <v>2.09145799997019e-198</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>1.868106493637049e-198</v>
+        <v>1.8763072370415e-198</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>1.642775718612601e-198</v>
+        <v>1.651182526067165e-198</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>1.442142238710657e-198</v>
+        <v>1.450405711427527e-198</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>1.278904441853351e-198</v>
+        <v>1.28667417692423e-198</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>1.148501545195564e-198</v>
+        <v>1.155504126120026e-198</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>1.045896637292797e-198</v>
+        <v>1.051937785502337e-198</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>9.660528067006762e-199</v>
+        <v>9.710173815587148e-199</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>9.039331419746897e-199</v>
+        <v>9.077851407765701e-199</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>8.54500731670376e-199</v>
+        <v>8.572832896433649e-199</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>8.127186643432554e-199</v>
+        <v>8.145540546465431e-199</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>7.735627029255227e-199</v>
+        <v>7.746520572970762e-199</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>7.336595106716267e-199</v>
+        <v>7.34246432297348e-199</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>6.929071555885289e-199</v>
+        <v>6.932056147897427e-199</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>6.5158881853852e-199</v>
+        <v>6.517746645842484e-199</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>6.09987680383836e-199</v>
+        <v>6.101986414907974e-199</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>5.683869219867309e-199</v>
+        <v>5.687226053193402e-199</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>5.270697242094406e-199</v>
+        <v>5.275916158798095e-199</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>4.863192679142561e-199</v>
+        <v>4.870507329821932e-199</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>4.46418733963413e-199</v>
+        <v>4.473450164364232e-199</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>4.076510670099323e-199</v>
+        <v>4.08719359724282e-199</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>3.702503673089653e-199</v>
+        <v>3.713842622486896e-199</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>3.343423556900832e-199</v>
+        <v>3.354739073829823e-199</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>3.000381809045633e-199</v>
+        <v>3.011122174832283e-199</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>2.674489917036685e-199</v>
+        <v>2.684231149054812e-199</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>2.366859368387056e-199</v>
+        <v>2.375305220058388e-199</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>2.078601650609365e-199</v>
+        <v>2.085583611403536e-199</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>1.810828251216271e-199</v>
+        <v>1.816305546650824e-199</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>1.564650657720787e-199</v>
+        <v>1.568710249361175e-199</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>1.341103795563535e-199</v>
+        <v>1.343954861727262e-199</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>1.140058150918537e-199</v>
+        <v>1.141948143220536e-199</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>9.604780858489132e-200</v>
+        <v>9.616274074708619e-200</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>8.013040843570671e-200</v>
+        <v>8.01904368697905e-200</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>6.614766304451532e-200</v>
+        <v>6.616907411210832e-200</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>5.399362081153612e-200</v>
+        <v>5.3989823895985e-200</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>4.356233013700409e-200</v>
+        <v>4.354385764338184e-200</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>3.47478394211374e-200</v>
+        <v>3.472234677624333e-200</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>2.744419706416012e-200</v>
+        <v>2.741646271651984e-200</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>2.153632595129905e-200</v>
+        <v>2.150866446350478e-200</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>1.687151475594589e-200</v>
+        <v>1.68454804240853e-200</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>1.328735183682159e-200</v>
+        <v>1.326417780275667e-200</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>1.062142554271979e-200</v>
+        <v>1.060202379453636e-200</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>8.711324222433431e-201</v>
+        <v>8.696285594441155e-201</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>7.394636224757818e-201</v>
+        <v>7.384230397490186e-201</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>6.508949898485579e-201</v>
+        <v>6.503125398699925e-201</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>5.891853592410119e-201</v>
+        <v>5.890237793087611e-201</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>5.381204951700371e-201</v>
+        <v>5.383104726739798e-201</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>4.86536877551263e-201</v>
+        <v>4.869893289054785e-201</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>4.342324594174422e-201</v>
+        <v>4.348651787975061e-201</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>3.824418608874958e-201</v>
+        <v>3.831830129511526e-201</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>3.323997020802728e-201</v>
+        <v>3.331878219674363e-201</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>2.853406031146462e-201</v>
+        <v>2.861245964473994e-201</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>2.424991841094708e-201</v>
+        <v>2.432383269920657e-201</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>2.051100651836586e-201</v>
+        <v>2.057740042025166e-201</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>1.744078664560622e-201</v>
+        <v>1.749766186797735e-201</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>1.51609069590424e-201</v>
+        <v>1.520729700256586e-201</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>1.369140659717119e-201</v>
+        <v>1.37270824118577e-201</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>1.289884852769535e-201</v>
+        <v>1.292387391794352e-201</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>1.263705214299781e-201</v>
+        <v>1.265174685157466e-201</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>1.275983683546242e-201</v>
+        <v>1.27647765435034e-201</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>1.312102199747276e-201</v>
+        <v>1.311703832448173e-201</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>1.357442702141255e-201</v>
+        <v>1.356260752526182e-201</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>1.397387129966567e-201</v>
+        <v>1.395555947659595e-201</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>1.417317422461547e-201</v>
+        <v>1.414996950923589e-201</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>1.405134958731889e-201</v>
+        <v>1.402504329547914e-201</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>1.361926855516011e-201</v>
+        <v>1.359150863463845e-201</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>1.293079384572343e-201</v>
+        <v>1.290297556958022e-201</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>1.203981183627707e-201</v>
+        <v>1.201307774269969e-201</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>1.100020890408841e-201</v>
+        <v>1.097544879639123e-201</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>9.865871426425041e-202</v>
+        <v>9.843722373049449e-202</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>8.690685780554049e-202</v>
+        <v>8.671532115068432e-202</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>7.528538343744128e-202</v>
+        <v>7.512511664843885e-202</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>6.433314634904817e-202</v>
+        <v>6.4202938102944e-202</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>5.447395282666225e-202</v>
+        <v>5.437058481651474e-202</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>4.572814136701585e-202</v>
+        <v>4.564821304550641e-202</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>3.802765470026347e-202</v>
+        <v>3.796798306281267e-202</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>3.130443555656435e-202</v>
+        <v>3.126205514133179e-202</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>2.549042666607529e-202</v>
+        <v>2.546258955395968e-202</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>2.051757075896073e-202</v>
+        <v>2.050174657359984e-202</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>1.631781056537707e-202</v>
+        <v>1.631168647314776e-202</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>1.282308881548355e-202</v>
+        <v>1.282456952550175e-202</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>9.965348239438237e-203</v>
+        <v>9.972556003558958e-203</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>7.676531567402907e-203</v>
+        <v>7.687806180220239e-203</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>5.888581529535353e-203</v>
+        <v>5.902480328382473e-203</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>4.533440855994288e-203</v>
+        <v>4.548738720943447e-203</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>3.54305227694013e-203</v>
+        <v>3.558741630802658e-203</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>2.849358522531403e-203</v>
+        <v>2.864649330857711e-203</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>2.384302322927166e-203</v>
+        <v>2.398622094006742e-203</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>2.079826408287039e-203</v>
+        <v>2.092820193148454e-203</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>1.867873508769992e-203</v>
+        <v>1.879403901180893e-203</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>1.686869023295632e-203</v>
+        <v>1.696994851955729e-203</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>1.518544101567098e-203</v>
+        <v>1.527378088949818e-203</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>1.362373526312945e-203</v>
+        <v>1.370023967328604e-203</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>1.21788568608951e-203</v>
+        <v>1.224456271888953e-203</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>1.084608969453208e-203</v>
+        <v>1.090198787427812e-203</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>9.620717649604039e-204</v>
+        <v>9.667752987420737e-204</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>8.49802461167623e-204</v>
+        <v>8.537095906287949e-204</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>7.473294466312238e-204</v>
+        <v>7.50525447884863e-204</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>6.541811099075831e-204</v>
+        <v>6.567466553071845e-204</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>5.698858395531994e-204</v>
+        <v>5.718969976927889e-204</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>4.939720241244458e-204</v>
+        <v>4.955002598385782e-204</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>4.25968052177709e-204</v>
+        <v>4.270802265414688e-204</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>3.654023122694662e-204</v>
+        <v>3.661606825984684e-204</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>3.118031929561008e-204</v>
+        <v>3.122654128064902e-204</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>2.646990827940093e-204</v>
+        <v>2.649182019624601e-204</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>2.236183703396672e-204</v>
+        <v>2.236428348633838e-204</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>1.880894441494162e-204</v>
+        <v>1.879630963061326e-204</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>1.576406927797111e-204</v>
+        <v>1.574027710876915e-204</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>1.318005047869891e-204</v>
+        <v>1.314856440050272e-204</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>1.10097268727619e-204</v>
+        <v>1.097354998550386e-204</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>9.205937315805637e-205</v>
+        <v>9.167612343471098e-205</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>7.721520663468447e-205</v>
+        <v>7.683129954095756e-205</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>6.509315771393649e-205</v>
+        <v>6.472481297074135e-205</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>5.522161495223587e-205</v>
+        <v>5.48804485210156e-205</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>4.712896690598054e-205</v>
+        <v>4.68219909887082e-205</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>4.034360213159579e-205</v>
+        <v>4.00732251707742e-205</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>3.441519650728567e-205</v>
+        <v>3.41794600348972e-205</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>2.914162181793044e-205</v>
+        <v>2.89369619554705e-205</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>2.448122393211779e-205</v>
+        <v>2.430425687204524e-205</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>2.03950389509279e-205</v>
+        <v>2.024259088897624e-205</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>1.684410297543016e-205</v>
+        <v>1.671321011060762e-205</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>1.378945210670525e-205</v>
+        <v>1.367736064129473e-205</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>1.119212244583206e-205</v>
+        <v>1.109628858539114e-205</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>9.01315009388267e-206</v>
+        <v>8.931240047243633e-206</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>7.213571151936373e-206</v>
+        <v>7.143461131206173e-206</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>5.754421721071081e-206</v>
+        <v>5.694197941631349e-206</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>4.596737902360931e-206</v>
+        <v>4.544696582868005e-206</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>3.701555796884828e-206</v>
+        <v>3.656203159269714e-206</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>3.029911505717928e-206</v>
+        <v>2.98996377518633e-206</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>2.542841129937892e-206</v>
+        <v>2.507224534970192e-206</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>2.201380770621714e-206</v>
+        <v>2.169231542972978e-206</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>1.966566528845548e-206</v>
+        <v>1.937230903545532e-206</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>1.799434505686505e-206</v>
+        <v>1.772468721039647e-206</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>1.66162409960779e-206</v>
+        <v>1.636791180904794e-206</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>1.532205820011348e-206</v>
+        <v>1.509382651097046e-206</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>1.409920200575125e-206</v>
+        <v>1.388992659360917e-206</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>1.294560905735919e-206</v>
+        <v>1.27541824976759e-206</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>1.185921599930221e-206</v>
+        <v>1.168456466387943e-206</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>1.083795947594925e-206</v>
+        <v>1.067904353293251e-206</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>9.879776131665434e-207</v>
+        <v>9.735589545544175e-207</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>8.9826026108187e-207</v>
+        <v>8.852173142426176e-207</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>8.14437555777675e-207</v>
+        <v>8.026764764290066e-207</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>7.363031616905055e-207</v>
+        <v>7.25733485184519e-207</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>6.636507432571367e-207</v>
+        <v>6.541853845803142e-207</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>5.962739649143252e-207</v>
+        <v>5.87829218687533e-207</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>5.339664910986474e-207</v>
+        <v>5.264620315771389e-207</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>4.765219862468639e-207</v>
+        <v>4.698808673202771e-207</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>4.237341147957179e-207</v>
+        <v>4.17882769988075e-207</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>3.753965411818122e-207</v>
+        <v>3.702647836515223e-207</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>3.31302929841894e-207</v>
+        <v>3.268239523817506e-207</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>2.912469452126955e-207</v>
+        <v>2.873573202498769e-207</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>2.550222517308422e-207</v>
+        <v>2.51661931326913e-207</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>2.224225138330975e-207</v>
+        <v>2.195348296840066e-207</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>1.932413959561006e-207</v>
+        <v>1.90773059392183e-207</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>1.672725625365799e-207</v>
+        <v>1.651736645225555e-207</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>1.443096780112528e-207</v>
+        <v>1.425336891462263e-207</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>1.241464068167756e-207</v>
+        <v>1.226501773342377e-207</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>1.06576413389868e-207</v>
+        <v>1.053201731576942e-207</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>9.139336216724032e-208</v>
+        <v>9.034072068769138e-208</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>7.839091758556314e-208</v>
+        <v>7.750886399528529e-208</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>6.736274408154879e-208</v>
+        <v>6.662164715157338e-208</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>5.810250609190262e-208</v>
+        <v>5.747611422764613e-208</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>5.040386805330573e-208</v>
+        <v>4.986930929457015e-208</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>4.406049440246495e-208</v>
+        <v>4.359827642343737e-208</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>3.886604957608216e-208</v>
+        <v>3.846005968533491e-208</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>3.461419801084588e-208</v>
+        <v>3.425170315133661e-208</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>3.109860414346183e-208</v>
+        <v>3.07702508925334e-208</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>2.811293241062152e-208</v>
+        <v>2.781274698000207e-208</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>2.545766979162465e-208</v>
+        <v>2.518294017009279e-208</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>2.303753704400508e-208</v>
+        <v>2.278701239078062e-208</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>2.083860744383946e-208</v>
+        <v>2.061109274873048e-208</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>1.884911225713766e-208</v>
+        <v>1.86434310619251e-208</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>1.705728274990882e-208</v>
+        <v>1.687227714834648e-208</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>1.545135018815729e-208</v>
+        <v>1.528588082597189e-208</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>1.401954583789238e-208</v>
+        <v>1.387249191278352e-208</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>1.275010096512275e-208</v>
+        <v>1.26203602267629e-208</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>1.163124683585373e-208</v>
+        <v>1.151773558588826e-208</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>1.065121471609494e-208</v>
+        <v>1.055286780814209e-208</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>9.79823587185222e-209</v>
+        <v>9.714006711503133e-209</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>9.060541569134108e-209</v>
+        <v>8.989402113952801e-209</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>8.426363073948727e-209</v>
+        <v>8.367303833472092e-209</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>7.883931652302534e-209</v>
+        <v>7.835961688040373e-209</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>7.421478570203744e-209</v>
+        <v>7.38362549563873e-209</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>7.027235093660274e-209</v>
+        <v>6.998545074247956e-209</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>6.689432488679019e-209</v>
+        <v>6.668970241847849e-209</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>6.396302021267957e-209</v>
+        <v>6.383150816419262e-209</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>6.136074957434904e-209</v>
+        <v>6.129336615942894e-209</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>5.896982563186996e-209</v>
+        <v>5.895777458398773e-209</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>5.667256104532074e-209</v>
+        <v>5.670723161767621e-209</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>5.435126847477944e-209</v>
+        <v>5.442423544030127e-209</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>5.189683006682939e-209</v>
+        <v>5.199988427584624e-209</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>4.929228501739546e-209</v>
+        <v>4.941776201765291e-209</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>4.657676659396857e-209</v>
+        <v>4.671774665477151e-209</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>4.379020289285784e-209</v>
+        <v>4.394051383932635e-209</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>4.097252201038227e-209</v>
+        <v>4.112673922345162e-209</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>3.816365204285078e-209</v>
+        <v>3.831709845927145e-209</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>3.540352108657998e-209</v>
+        <v>3.555226719891763e-209</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>3.273205723788625e-209</v>
+        <v>3.287292109452175e-209</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>3.01891885930788e-209</v>
+        <v>3.031973579820822e-209</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>2.781484324847413e-209</v>
+        <v>2.793338696210872e-209</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>2.564894930038811e-209</v>
+        <v>2.575455023835436e-209</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>2.37314348451309e-209</v>
+        <v>2.382390127907045e-209</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>2.210222797901856e-209</v>
+        <v>2.218211573638827e-209</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>2.079297294029021e-209</v>
+        <v>2.086150581185786e-209</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>1.977837247526591e-209</v>
+        <v>1.983689511303552e-209</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>1.90091920525133e-209</v>
+        <v>1.905893997690482e-209</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>1.84361143042119e-209</v>
+        <v>1.84782131081572e-209</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>1.800982186254338e-209</v>
+        <v>1.80452872114863e-209</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>1.768099735968888e-209</v>
+        <v>1.77107349915852e-209</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>1.740032342782872e-209</v>
+        <v>1.742512915314616e-209</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>1.711848269914407e-209</v>
+        <v>1.713904240086234e-209</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>1.678615780581618e-209</v>
+        <v>1.680304743942689e-209</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>1.636268500023001e-209</v>
+        <v>1.637638218734729e-209</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>1.584691924312873e-209</v>
+        <v>1.58578562163264e-209</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>1.524899011071362e-209</v>
+        <v>1.525756881859076e-209</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>1.457902802997259e-209</v>
+        <v>1.458562013829338e-209</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>1.384716342789587e-209</v>
+        <v>1.385211031958958e-209</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>1.306352673147114e-209</v>
+        <v>1.306713950663215e-209</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>1.223824836768806e-209</v>
+        <v>1.224080784357583e-209</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>1.138145876353642e-209</v>
+        <v>1.138321547457554e-209</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>1.05032883460037e-209</v>
+        <v>1.050446254378382e-209</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>9.613867542079686e-210</v>
+        <v>9.614649195355562e-210</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>8.723326778754183e-210</v>
+        <v>8.723875573445679e-210</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>7.8417964830146e-210</v>
+        <v>7.842241822206676e-210</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>6.979407081850767e-210</v>
+        <v>6.97984808579347e-210</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>6.146289002252434e-210</v>
+        <v>6.146794508360917e-210</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>5.352572671207112e-210</v>
+        <v>5.353181234061622e-210</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>4.608388515704587e-210</v>
+        <v>4.609108407050469e-210</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>3.923866962734464e-210</v>
+        <v>3.924676171482159e-210</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>3.307791778387638e-210</v>
+        <v>3.308641691333336e-210</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>2.759918615798528e-210</v>
+        <v>2.760758693444128e-210</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>2.276292136242313e-210</v>
+        <v>2.277080055753018e-210</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>1.852945592652591e-210</v>
+        <v>1.853647279038416e-210</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>1.485912237964597e-210</v>
+        <v>1.486501864080371e-210</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>1.171225325112141e-210</v>
+        <v>1.171685311657503e-210</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>9.049181070300461e-211</v>
+        <v>9.05239122549448e-211</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>6.83023836652958e-211</v>
+        <v>6.832047975356639e-211</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>5.015757669149479e-211</v>
+        <v>5.016238373950336e-211</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>3.566071507507016e-211</v>
+        <v>3.565377429070547e-211</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>2.441511265601446e-211</v>
+        <v>2.439878946480965e-211</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>1.601773927792991e-211</v>
+        <v>1.599490935592414e-211</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>1.004869689311841e-211</v>
+        <v>1.002191136758053e-211</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>6.085314992785898e-212</v>
+        <v>6.056663231909862e-212</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>3.704923068128732e-212</v>
+        <v>3.676032681033532e-212</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>2.484850610355191e-212</v>
+        <v>2.456887447084878e-212</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>2.002427110666562e-212</v>
+        <v>1.976095262190249e-212</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>1.83638039228447e-212</v>
+        <v>1.811923726560119e-212</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>1.704357981192647e-212</v>
+        <v>1.681712746070381e-212</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>1.578888383501803e-212</v>
+        <v>1.557963192764712e-212</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>1.459803936659805e-212</v>
+        <v>1.440509763205978e-212</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>1.346936978114503e-212</v>
+        <v>1.329187153957026e-212</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>1.24011984531344e-212</v>
+        <v>1.223830061580405e-212</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>1.139184875704469e-212</v>
+        <v>1.124273182638968e-212</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>1.043964406735422e-212</v>
+        <v>1.030351213695545e-212</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>9.54290775853875e-213</v>
+        <v>9.418988513127167e-213</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>8.699963205076654e-213</v>
+        <v>8.587507920533181e-213</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>7.909133781446101e-213</v>
+        <v>7.807417324801669e-213</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>7.168742862123152e-213</v>
+        <v>7.077063691558718e-213</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>6.477113821586023e-213</v>
+        <v>6.394793986432535e-213</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>5.832570034312755e-213</v>
+        <v>5.758955175051171e-213</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>5.233434874779673e-213</v>
+        <v>5.167894223040968e-213</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>4.678031717465341e-213</v>
+        <v>4.619958096030487e-213</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>4.164683936846241e-213</v>
+        <v>4.113493759646226e-213</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>3.691714907400375e-213</v>
+        <v>3.646848179516194e-213</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>3.257448003605604e-213</v>
+        <v>3.218368321268247e-213</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>2.860206599938625e-213</v>
+        <v>2.826401150529104e-213</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>2.49831407087733e-213</v>
+        <v>2.469293632926658e-213</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>2.170093790899482e-213</v>
+        <v>2.145392734088677e-213</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>1.873869134481975e-213</v>
+        <v>1.853045419642067e-213</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>1.607963476102599e-213</v>
+        <v>1.590598655214627e-213</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>1.370700190239042e-213</v>
+        <v>1.356399406434044e-213</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>1.160402651368356e-213</v>
+        <v>1.148794638927387e-213</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>9.753942339684082e-214</v>
+        <v>9.661313183225228e-214</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>8.139983125163483e-214</v>
+        <v>8.067564102466147e-214</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>6.745382614898363e-214</v>
+        <v>6.690168803273274e-214</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>5.553374553664537e-214</v>
+        <v>5.512596941922488e-214</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>4.547192686234691e-214</v>
+        <v>4.518318174686573e-214</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>3.710070757384814e-214</v>
+        <v>3.690802157841578e-214</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>3.025242511890284e-214</v>
+        <v>3.013518547662951e-214</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>2.475941694524703e-214</v>
+        <v>2.469937000424382e-214</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>2.045402050063579e-214</v>
+        <v>2.043527172401444e-214</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>1.71685732328199e-214</v>
+        <v>1.71775871986929e-214</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>1.473541258954183e-214</v>
+        <v>1.476101299102244e-214</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>1.298687601855453e-214</v>
+        <v>1.302024566375674e-214</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>1.175530096760321e-214</v>
+        <v>1.178998177964176e-214</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>1.087302488443797e-214</v>
+        <v>1.090491790142834e-214</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>1.017242134515319e-214</v>
+        <v>1.019978620675404e-214</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>9.523657654835204e-215</v>
+        <v>9.546575476186734e-215</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>8.906247935845474e-215</v>
+        <v>8.925067266016091e-215</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>8.319367094911002e-215</v>
+        <v>8.334424497005259e-215</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>7.762190038757208e-215</v>
+        <v>7.773810089915806e-215</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>7.233891674111117e-215</v>
+        <v>7.242386965510918e-215</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>6.733646907699646e-215</v>
+        <v>6.739318044553667e-215</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>6.260630646248378e-215</v>
+        <v>6.26376624780578e-215</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>5.814017796484255e-215</v>
+        <v>5.814894496030361e-215</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>5.392983265134124e-215</v>
+        <v>5.391865709990415e-215</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>4.996701958923712e-215</v>
+        <v>4.993842810447812e-215</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>4.624348784579884e-215</v>
+        <v>4.619988718165578e-215</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>4.27509864882943e-215</v>
+        <v>4.269466353906658e-215</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>3.948126458398201e-215</v>
+        <v>3.941438638433051e-215</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>3.642607120013268e-215</v>
+        <v>3.635068492507986e-215</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>3.357715540400561e-215</v>
+        <v>3.349518836893547e-215</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>3.092626626286845e-215</v>
+        <v>3.083952592352652e-215</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>2.846515284398816e-215</v>
+        <v>2.837532679648151e-215</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>2.618556421462509e-215</v>
+        <v>2.609422019542235e-215</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>2.407924944204638e-215</v>
+        <v>2.398783532797769e-215</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>2.213795759351848e-215</v>
+        <v>2.204780140177553e-215</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>2.035343773630272e-215</v>
+        <v>2.026574762443876e-215</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>1.871743893766572e-215</v>
+        <v>1.863330320359552e-215</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>1.72217102648736e-215</v>
+        <v>1.714209734687346e-215</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>1.585800078518844e-215</v>
+        <v>1.578375926189622e-215</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>1.461805956587754e-215</v>
+        <v>1.454991815629263e-215</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>1.349363567420347e-215</v>
+        <v>1.343220323768681e-215</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>1.24764781774322e-215</v>
+        <v>1.242224371370627e-215</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>1.155833614282935e-215</v>
+        <v>1.151166879197814e-215</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>1.073095863765804e-215</v>
+        <v>1.069210768012712e-215</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>9.986094729183966e-216</v>
+        <v>9.955189585780433e-216</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>9.315493484672507e-216</v>
+        <v>9.292543716564984e-216</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>8.710903971387265e-216</v>
+        <v>8.695799280105928e-216</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>8.164075256593677e-216</v>
+        <v>8.156585484030242e-216</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>7.666756407556984e-216</v>
+        <v>7.666531535964694e-216</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>7.210696491541095e-216</v>
+        <v>7.217266643534751e-216</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>6.787644575811657e-216</v>
+        <v>6.800420014367587e-216</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>6.389349727632721e-216</v>
+        <v>6.407620856088802e-216</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>6.007561070372603e-216</v>
+        <v>6.030498433619346e-216</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>5.635637930383736e-216</v>
+        <v>5.662326400326065e-216</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>5.272760773497476e-216</v>
+        <v>5.302323134927466e-216</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>4.919425078972517e-216</v>
+        <v>4.951049948000633e-216</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>4.576126326068842e-216</v>
+        <v>4.609068150123922e-216</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>4.243359994045174e-216</v>
+        <v>4.276939051874449e-216</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>3.921621562161174e-216</v>
+        <v>3.955223963830249e-216</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>3.611406509676466e-216</v>
+        <v>3.644484196569329e-216</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>3.313210315849832e-216</v>
+        <v>3.345281060668857e-216</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>3.027528459940904e-216</v>
+        <v>3.058175866706845e-216</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>2.754856421209269e-216</v>
+        <v>2.783729925261263e-216</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>2.495689678913779e-216</v>
+        <v>2.522504546909345e-216</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>2.250523712314033e-216</v>
+        <v>2.27506104222907e-216</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>2.019854000669579e-216</v>
+        <v>2.041960721798373e-216</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>1.804176023239345e-216</v>
+        <v>1.823764896194559e-216</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>1.603985259283066e-216</v>
+        <v>1.62103487599575e-216</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>1.419777188059726e-216</v>
+        <v>1.434331971779308e-216</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>1.252047288828859e-216</v>
+        <v>1.26421749412315e-216</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>1.101243480048374e-216</v>
+        <v>1.111203142302603e-216</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>9.669786732716321e-217</v>
+        <v>9.749296088228075e-217</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>8.481534105019811e-217</v>
+        <v>8.542945040687769e-217</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>7.436453945728511e-217</v>
+        <v>7.481716145846522e-217</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>6.523323283173962e-217</v>
+        <v>6.554347269142939e-217</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>5.730919145690585e-217</v>
+        <v>5.74957627601854e-217</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>5.048018561612369e-217</v>
+        <v>5.056141031914414e-217</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>4.463398559271513e-217</v>
+        <v>4.462779402269831e-217</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>3.96583616700251e-217</v>
+        <v>3.958229252526386e-217</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>3.544108413137889e-217</v>
+        <v>3.531228448123688e-217</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>3.186992326011558e-217</v>
+        <v>3.170514854502737e-217</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>2.883264933957184e-217</v>
+        <v>2.864826337104296e-217</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>2.621703265307649e-217</v>
+        <v>2.602900761368329e-217</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>2.391084348396667e-217</v>
+        <v>2.373475992735643e-217</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>2.180205078126955e-217</v>
+        <v>2.165309182291198e-217</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>1.981272668463271e-217</v>
+        <v>1.970468077927627e-217</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>1.793742911554746e-217</v>
+        <v>1.788057047678041e-217</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>1.617998865303204e-217</v>
+        <v>1.618080610847285e-217</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>1.454423587609997e-217</v>
+        <v>1.460543286739749e-217</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>1.30340013637709e-217</v>
+        <v>1.315449594660414e-217</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>1.165311569505881e-217</v>
+        <v>1.182804053913715e-217</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>1.04054094489818e-217</v>
+        <v>1.062611183804485e-217</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>9.294713204556582e-218</v>
+        <v>9.54875503637421e-218</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>8.324538761657488e-218</v>
+        <v>8.59579835750741e-218</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>7.488361685110907e-218</v>
+        <v>7.760239093101582e-218</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>6.767839818381211e-218</v>
+        <v>7.02703107555204e-218</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>6.143952943828239e-218</v>
+        <v>6.3806666306137e-218</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>5.597680843813817e-218</v>
+        <v>5.805638084043495e-218</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>5.110003300699488e-218</v>
+        <v>5.286437761598101e-218</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>4.661900096845519e-218</v>
+        <v>4.807557989032829e-218</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>4.235095372670541e-218</v>
+        <v>4.354106738921072e-218</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>3.823892341227918e-218</v>
+        <v>3.921595936545567e-218</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>3.433072111246269e-218</v>
+        <v>3.514203609552985e-218</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>3.067735508814315e-218</v>
+        <v>3.136372218779521e-218</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>2.732983360020685e-218</v>
+        <v>2.792544225061264e-218</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>2.43256079752107e-218</v>
+        <v>2.485795262241718e-218</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>2.164147018173824e-218</v>
+        <v>2.213085212194589e-218</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>1.923725320360651e-218</v>
+        <v>1.969664130841607e-218</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>1.707278923411671e-218</v>
+        <v>1.750781994403719e-218</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>1.511223328290548e-218</v>
+        <v>1.552235929698551e-218</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>1.333901171069937e-218</v>
+        <v>1.372262290758014e-218</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>1.174191914169097e-218</v>
+        <v>1.209776907291436e-218</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>1.030975042739588e-218</v>
+        <v>1.063695637781051e-218</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>9.031300419325922e-219</v>
+        <v>9.329343407087061e-219</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>7.895363968996837e-219</v>
+        <v>8.164088745566517e-219</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>6.890735927923853e-219</v>
+        <v>7.130350978070844e-219</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>6.006211147619558e-219</v>
+        <v>6.217288689419293e-219</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>5.230584479599951e-219</v>
+        <v>5.414060464434632e-219</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>4.552650775378024e-219</v>
+        <v>4.709824887936521e-219</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>3.96120488646891e-219</v>
+        <v>4.093740544746836e-219</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>3.445041664386989e-219</v>
+        <v>3.554966019686674e-219</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>2.99295596064703e-219</v>
+        <v>3.082659897577539e-219</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>2.593900212914208e-219</v>
+        <v>2.66612623144928e-219</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>2.240632264282494e-219</v>
+        <v>2.29818185454065e-219</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>1.929818675958608e-219</v>
+        <v>1.975251748521415e-219</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>1.658304262487063e-219</v>
+        <v>1.693925441207419e-219</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>1.422933838412229e-219</v>
+        <v>1.450792460414358e-219</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>1.220552218277859e-219</v>
+        <v>1.242442333957287e-219</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>1.048004216628354e-219</v>
+        <v>1.065464589651933e-219</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>9.021346480080091e-220</v>
+        <v>9.164487553139122e-220</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>7.797883269607368e-220</v>
+        <v>7.919843587584493e-220</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>6.778100680308545e-220</v>
+        <v>6.886609278011826e-220</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>5.930446857626057e-220</v>
+        <v>6.030679902576744e-220</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>5.223369947000139e-220</v>
+        <v>5.317950739432645e-220</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>4.625318093873866e-220</v>
+        <v>4.714317066735797e-220</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>4.107943529881645e-220</v>
+        <v>4.189290612509638e-220</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>3.661049556989156e-220</v>
+        <v>3.732870205299527e-220</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>3.280823722808183e-220</v>
+        <v>3.342260567293634e-220</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>2.963460630793696e-220</v>
+        <v>3.014674384605549e-220</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>2.705154884401716e-220</v>
+        <v>2.747324343349945e-220</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>2.502101087088054e-220</v>
+        <v>2.537423129641275e-220</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>2.350493842307998e-220</v>
+        <v>2.382183429593454e-220</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>2.246527753517404e-220</v>
+        <v>2.278817929320988e-220</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>2.186397445434624e-220</v>
+        <v>2.224539331475553e-220</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>2.170135881340944e-220</v>
+        <v>2.219545664423781e-220</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>2.212322038969559e-220</v>
+        <v>2.275348338684913e-220</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>2.330651884364426e-220</v>
+        <v>2.405832619870076e-220</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>2.52161036261367e-220</v>
+        <v>2.605127276174486e-220</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>2.747900344714498e-220</v>
+        <v>2.83589557204087e-220</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>2.969210308138938e-220</v>
+        <v>3.057993087264736e-220</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>3.145228730358376e-220</v>
+        <v>3.231275401640946e-220</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>3.235644088844375e-220</v>
+        <v>3.315598094964538e-220</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>3.200671036689336e-220</v>
+        <v>3.271352552281709e-220</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>3.03407300619871e-220</v>
+        <v>3.093092919817229e-220</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>2.782784595611899e-220</v>
+        <v>2.829517604362007e-220</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>2.498453868073176e-220</v>
+        <v>2.534124739541876e-220</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>2.232728886727717e-220</v>
+        <v>2.260412458983612e-220</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>2.032575742474171e-220</v>
+        <v>2.056973742995325e-220</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>1.89950477818083e-220</v>
+        <v>1.924779031305236e-220</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>1.809465118041358e-220</v>
+        <v>1.838019088323266e-220</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>1.738121030221181e-220</v>
+        <v>1.770586243864104e-220</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>1.661136782885557e-220</v>
+        <v>1.696372827742277e-220</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>1.556013633761083e-220</v>
+        <v>1.591247639278173e-220</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>1.42091713769791e-220</v>
+        <v>1.453312784929556e-220</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>1.26702384369925e-220</v>
+        <v>1.294669271162111e-220</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>1.105713182564676e-220</v>
+        <v>1.127636390757492e-220</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>9.483645850933182e-221</v>
+        <v>9.645334364968943e-221</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>8.062373377455815e-221</v>
+        <v>8.175494260363297e-221</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>6.850805530341902e-221</v>
+        <v>6.928985753199677e-221</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>5.829578945618707e-221</v>
+        <v>5.884616005259724e-221</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>4.973626715032469e-221</v>
+        <v>5.015007700945874e-221</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>4.257881930328822e-221</v>
+        <v>4.292783524659926e-221</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>3.657277683251547e-221</v>
+        <v>3.690566160801811e-221</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>3.146747065546824e-221</v>
+        <v>3.18097829377388e-221</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>2.701491530945702e-221</v>
+        <v>2.736940815914651e-221</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>2.306081898532375e-221</v>
+        <v>2.341786001429663e-221</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>1.956678455313043e-221</v>
+        <v>1.991724518271067e-221</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>1.650160174554979e-221</v>
+        <v>1.683765649540027e-221</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>1.383406029526414e-221</v>
+        <v>1.414918678338667e-221</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>1.153294993495441e-221</v>
+        <v>1.182192887768976e-221</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>9.567060397295451e-222</v>
+        <v>9.825975609323242e-222</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>7.905181414968488e-222</v>
+        <v>8.131419809307306e-222</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>6.516102720653643e-222</v>
+        <v>6.708354308661025e-222</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>5.368614047027425e-222</v>
+        <v>5.526871938399762e-222</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>4.431505126770949e-222</v>
+        <v>4.557065529543625e-222</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>3.673565692561533e-222</v>
+        <v>3.769027913108792e-222</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>3.063585477079103e-222</v>
+        <v>3.132851920114142e-222</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>2.570667575558607e-222</v>
+        <v>2.618908405013873e-222</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>2.172415356902819e-222</v>
+        <v>2.205109886859744e-222</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>1.855719585907797e-222</v>
+        <v>1.877608904677853e-222</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>1.607942201513246e-222</v>
+        <v>1.622976035489182e-222</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>1.416445142657843e-222</v>
+        <v>1.427781856313651e-222</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>1.268590348280952e-222</v>
+        <v>1.278596944171889e-222</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>1.15173975732178e-222</v>
+        <v>1.161991876084357e-222</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>1.053255308719239e-222</v>
+        <v>1.064537229071224e-222</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>9.605033409322552e-223</v>
+        <v>9.728082416661896e-223</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>8.643480729289191e-223</v>
+        <v>8.770863333816071e-223</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>7.654364853460088e-223</v>
+        <v>7.78018253568928e-223</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>6.661126957379327e-223</v>
+        <v>6.780489538182871e-223</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>5.687208216591e-223</v>
+        <v>5.796233857198228e-223</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>4.756049806636562e-223</v>
+        <v>4.851865008634067e-223</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>3.891092903060877e-223</v>
+        <v>3.971832508392549e-223</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>3.1157786814056e-223</v>
+        <v>3.180585872372581e-223</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>2.453548317214771e-223</v>
+        <v>2.502574616475494e-223</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>1.927842986032028e-223</v>
+        <v>1.962248256602218e-223</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>1.562103863399635e-223</v>
+        <v>1.584056308652266e-223</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>1.379772124861361e-223</v>
+        <v>1.392448288526701e-223</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>1.404288945960314e-223</v>
+        <v>1.411873712125911e-223</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>1.659095502239751e-223</v>
+        <v>1.666782095350422e-223</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>2.161844857707165e-223</v>
+        <v>2.175666631009557e-223</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>2.85776295182303e-223</v>
+        <v>2.882488542080262e-223</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>3.642785926338582e-223</v>
+        <v>3.680486815376078e-223</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>4.411905222653393e-223</v>
+        <v>4.461928282892179e-223</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>5.060112282169714e-223</v>
+        <v>5.119079776626465e-223</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>5.48239854628761e-223</v>
+        <v>5.544208128574609e-223</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>5.587877803730704e-223</v>
+        <v>5.64417431565632e-223</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>5.414764231349143e-223</v>
+        <v>5.459252672422295e-223</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>5.070460466547883e-223</v>
+        <v>5.101217433353018e-223</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>4.698747134766553e-223</v>
+        <v>4.718436475415166e-223</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>4.448294032612962e-223</v>
+        <v>4.462253691757607e-223</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>4.258003581476637e-223</v>
+        <v>4.269980655079071e-223</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>4.045268626369415e-223</v>
+        <v>4.057040864326188e-223</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>3.73593448181159e-223</v>
+        <v>3.747428701131158e-223</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>3.344947991120156e-223</v>
+        <v>3.355488325928262e-223</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>2.940671197010607e-223</v>
+        <v>2.94972740807807e-223</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>2.591602378346331e-223</v>
+        <v>2.598801467589298e-223</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>2.322118800014895e-223</v>
+        <v>2.327355415194665e-223</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>2.084343221620081e-223</v>
+        <v>2.087948103723535e-223</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>1.853938627765534e-223</v>
+        <v>1.856406694707928e-223</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>1.632392426426918e-223</v>
+        <v>1.634138483851601e-223</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>1.42200081286502e-223</v>
+        <v>1.423351903324029e-223</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>1.225059982341231e-223</v>
+        <v>1.226255385295295e-223</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>1.043866130116895e-223</v>
+        <v>1.045057361935432e-223</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>8.807154514528724e-224</v>
+        <v>8.819662654139894e-224</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>7.377488284821791e-224</v>
+        <v>7.390390116083218e-224</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>6.148795294543079e-224</v>
+        <v>6.161593594914828e-224</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>5.103539713315401e-224</v>
+        <v>5.115849651422781e-224</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>4.223783754192113e-224</v>
+        <v>4.235342716187824e-224</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>3.491589630225978e-224</v>
+        <v>3.502257219790112e-224</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>2.889019554467851e-224</v>
+        <v>2.898777592807888e-224</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>2.398135739971015e-224</v>
+        <v>2.407088265821829e-224</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>2.001000399786757e-224</v>
+        <v>2.009373669410614e-224</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>1.679683793859846e-224</v>
+        <v>1.687825963174865e-224</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>1.418537853853477e-224</v>
+        <v>1.426828846928899e-224</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>1.207322090399258e-224</v>
+        <v>1.215959987117855e-224</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>1.036579465585941e-224</v>
+        <v>1.045549553432637e-224</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>8.968529415021353e-225</v>
+        <v>9.059277155640024e-225</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>7.789235096990114e-225</v>
+        <v>7.876733968815014e-225</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>6.775729867570526e-225</v>
+        <v>6.855465995734736e-225</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>5.90904349589624e-225</v>
+        <v>5.977781182323173e-225</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>5.171211927696879e-225</v>
+        <v>5.227038983536274e-225</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>4.544271108704979e-225</v>
+        <v>4.586598854332951e-225</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>4.010256984650596e-225</v>
+        <v>4.039820249669583e-225</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>3.55120550126551e-225</v>
+        <v>3.570062624504316e-225</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>3.149643238880644e-225</v>
+        <v>3.161050522436049e-225</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>2.793095258216042e-225</v>
+        <v>2.800227932073295e-225</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>2.472005407122667e-225</v>
+        <v>2.47721075576345e-225</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>2.17685411005682e-225</v>
+        <v>2.181642113060213e-225</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>1.898121791474019e-225</v>
+        <v>1.903165123516504e-225</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>1.626342324730647e-225</v>
+        <v>1.631478753854641e-225</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>1.360258513613308e-225</v>
+        <v>1.364859238452278e-225</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>1.115591105937011e-225</v>
+        <v>1.119322561269193e-225</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>9.09222766140953e-226</v>
+        <v>9.12124502059925e-226</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>7.449730471635247e-226</v>
+        <v>7.47228810001666e-226</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>6.171042780935944e-226</v>
+        <v>6.188745288187946e-226</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>5.196601047867199e-226</v>
+        <v>5.21078186778809e-226</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>4.466841730985151e-226</v>
+        <v>4.478563121492638e-226</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>3.92220128884411e-226</v>
+        <v>3.932254331975298e-226</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>3.503116180000749e-226</v>
+        <v>3.512020781912152e-226</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>3.150334598387163e-226</v>
+        <v>3.158340918930989e-226</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>2.825683899515871e-226</v>
+        <v>2.832869018425016e-226</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>2.525108307208103e-226</v>
+        <v>2.531532679441452e-226</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>2.247662360828117e-226</v>
+        <v>2.253384080057088e-226</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>1.992400599740995e-226</v>
+        <v>1.997475398349545e-226</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>1.758377563311736e-226</v>
+        <v>1.762858812396357e-226</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>1.544647790904715e-226</v>
+        <v>1.54858650027444e-226</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>1.350265821884951e-226</v>
+        <v>1.353710640061349e-226</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>1.174286195617394e-226</v>
+        <v>1.17728340983457e-226</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>1.015763451466525e-226</v>
+        <v>1.018356987671123e-226</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>8.737521287974282e-227</v>
+        <v>8.759835516486287e-227</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>7.473067669746477e-227</v>
+        <v>7.492152798441678e-227</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>6.354819053631161e-227</v>
+        <v>6.371043503352117e-227</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>5.373320833277142e-227</v>
+        <v>5.387029411991779e-227</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>4.519118402330638e-227</v>
+        <v>4.530632305132255e-227</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>3.782757154440573e-227</v>
+        <v>3.79237396354784e-227</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>3.154782483255446e-227</v>
+        <v>3.162776168012413e-227</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>2.625739782422114e-227</v>
+        <v>2.632360699298198e-227</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>2.186174445589169e-227</v>
+        <v>2.191649338179163e-227</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>1.826631866404881e-227</v>
+        <v>1.831163865428953e-227</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>1.53765743851659e-227</v>
+        <v>1.541426061820279e-227</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>1.309796555572815e-227</v>
+        <v>1.312957708127033e-227</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>1.133594611221132e-227</v>
+        <v>1.136280585122165e-227</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>9.995969991097529e-228</v>
+        <v>1.00191647357926e-227</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>8.983491128866569e-228</v>
+        <v>9.003871542716715e-228</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>8.203963461998864e-228</v>
+        <v>8.22214407972815e-228</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>7.562840926972881e-228</v>
+        <v>7.579200154559098e-228</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>6.976590296224379e-228</v>
+        <v>6.991297743708766e-228</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>6.423009766718372e-228</v>
+        <v>6.436178466958604e-228</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>5.901122528401955e-228</v>
+        <v>5.912861615482743e-228</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>5.409972281306064e-228</v>
+        <v>5.420387041443219e-228</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>4.948602725460318e-228</v>
+        <v>4.957794597000765e-228</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>4.516057560895679e-228</v>
+        <v>4.524124134317445e-228</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>4.111380487643009e-228</v>
+        <v>4.118415505555229e-228</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>3.733615205732082e-228</v>
+        <v>3.739708562874998e-228</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>3.381805415193784e-228</v>
+        <v>3.387043158438745e-228</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>3.054994816058903e-228</v>
+        <v>3.059459144408363e-228</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>2.752227108357356e-228</v>
+        <v>2.755996372944878e-228</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>2.472545992120197e-228</v>
+        <v>2.475694696210449e-228</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>2.21499516737743e-228</v>
+        <v>2.217593966366188e-228</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>1.978618334159821e-228</v>
+        <v>1.980734035573966e-228</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>1.762459192498064e-228</v>
+        <v>1.764154755995586e-228</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>1.565561442422276e-228</v>
+        <v>1.566895979792269e-228</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>1.386968783963166e-228</v>
+        <v>1.387997559125833e-228</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>1.225724917151377e-228</v>
+        <v>1.226499346158028e-228</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>1.080873542017126e-228</v>
+        <v>1.081441193050176e-228</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>9.514583585910728e-229</v>
+        <v>9.518629519640442e-229</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>8.3652306690382e-229</v>
+        <v>8.368044750613419e-229</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>7.35111366985667e-229</v>
+        <v>7.35305614503475e-229</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>6.462669588673047e-229</v>
+        <v>6.464062224522415e-229</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>5.690335425790796e-229</v>
+        <v>5.691461510690944e-229</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>5.024548181515832e-229</v>
+        <v>5.02565252515732e-229</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>4.455744856153691e-229</v>
+        <v>4.457033789538146e-229</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>3.97436245000841e-229</v>
+        <v>3.976003825448527e-229</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>3.570837963385608e-229</v>
+        <v>3.572961154505147e-229</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>3.235608396590618e-229</v>
+        <v>3.238304298324407e-229</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>2.959110749927902e-229</v>
+        <v>2.962431778521837e-229</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>2.731782023702852e-229</v>
+        <v>2.735742116713897e-229</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>2.544059218220683e-229</v>
+        <v>2.548633834516867e-229</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>2.386379333786124e-229</v>
+        <v>2.391505453546544e-229</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>2.249179370704537e-229</v>
+        <v>2.254755495419358e-229</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>2.122896329280743e-229</v>
+        <v>2.128782481751196e-229</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>1.999394506367549e-229</v>
+        <v>2.005420627772419e-229</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>1.877282254375704e-229</v>
+        <v>1.883287880877436e-229</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>1.75715790246713e-229</v>
+        <v>1.763003872636686e-229</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>1.639620068235155e-229</v>
+        <v>1.645188524748917e-229</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>1.525267369273527e-229</v>
+        <v>1.5304617589133e-229</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>1.414698423175583e-229</v>
+        <v>1.419443496828589e-229</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>1.30851184753497e-229</v>
+        <v>1.312753660193851e-229</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>1.207306259945316e-229</v>
+        <v>1.211012170708137e-229</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>1.111680277999982e-229</v>
+        <v>1.114838950070223e-229</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>1.022232519292601e-229</v>
+        <v>1.024853919979167e-229</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>9.395616014167875e-230</v>
+        <v>9.416770021340011e-230</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>8.642336765419962e-230</v>
+        <v>8.658949188814758e-230</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>7.962349856674359e-230</v>
+        <v>7.975013716626948e-230</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>7.350517074728058e-230</v>
+        <v>7.359786949632563e-230</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>6.801536349303346e-230</v>
+        <v>6.807924671385417e-230</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>6.31010561012461e-230</v>
+        <v>6.314082665441443e-230</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>5.870922786914355e-230</v>
+        <v>5.872916715354678e-230</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>5.478685809396432e-230</v>
+        <v>5.47908260468052e-230</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>5.128092607294532e-230</v>
+        <v>5.127236116974196e-230</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>4.81384111033141e-230</v>
+        <v>4.812033035789999e-230</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>4.53062924823079e-230</v>
+        <v>4.52812914468319e-230</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>4.273154950716277e-230</v>
+        <v>4.270180227208917e-230</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>4.036116147510799e-230</v>
+        <v>4.032842066921645e-230</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>3.814210768337985e-230</v>
+        <v>3.810770447376542e-230</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>3.602136742921411e-230</v>
+        <v>3.598621152128725e-230</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>3.394592000984084e-230</v>
+        <v>3.391049964732737e-230</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>3.187411140730848e-230</v>
+        <v>3.183855585834937e-230</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>2.981672925622788e-230</v>
+        <v>2.978109710098374e-230</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>2.779967480714688e-230</v>
+        <v>2.776403702190986e-230</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>2.58488507213481e-230</v>
+        <v>2.581329068629708e-230</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>2.399015966010887e-230</v>
+        <v>2.395477315930953e-230</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>2.224950428471187e-230</v>
+        <v>2.221439950611666e-230</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>2.065278725643936e-230</v>
+        <v>2.061808479188746e-230</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>1.922591123656933e-230</v>
+        <v>1.919174408178673e-230</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>1.799473130795166e-230</v>
+        <v>1.796124484432097e-230</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>1.697036394998365e-230</v>
+        <v>1.693771029730879e-230</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>1.612839576036838e-230</v>
+        <v>1.60967201632643e-230</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>1.543916711644135e-230</v>
+        <v>1.540860593419508e-230</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>1.487301839553751e-230</v>
+        <v>1.484369910210815e-230</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>1.440028997499036e-230</v>
+        <v>1.437233115900908e-230</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>1.399132223213495e-230</v>
+        <v>1.3964833596905e-230</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>1.361645554430611e-230</v>
+        <v>1.359153790780279e-230</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>1.324603028883767e-230</v>
+        <v>1.322277558370838e-230</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>1.285187265081114e-230</v>
+        <v>1.283036362506998e-230</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>1.242393944146779e-230</v>
+        <v>1.24042460062104e-230</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>1.196430544332049e-230</v>
+        <v>1.194648223164531e-230</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>1.147526718050654e-230</v>
+        <v>1.145935350284652e-230</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>1.095912117716189e-230</v>
+        <v>1.094514102128451e-230</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>1.04181639574238e-230</v>
+        <v>1.040612598843103e-230</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>9.854692045429626e-231</v>
+        <v>9.844589605757964e-231</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>9.271001965315186e-231</v>
+        <v>9.262813074735647e-231</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>8.669390241217814e-231</v>
+        <v>8.663077596835934e-231</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>8.052377992355936e-231</v>
+        <v>8.047887869738748e-231</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>7.425683716531173e-231</v>
+        <v>7.422930325940706e-231</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>6.797406359760451e-231</v>
+        <v>6.796260199370223e-231</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>6.175701605531594e-231</v>
+        <v>6.175989183828036e-231</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>5.568725137334134e-231</v>
+        <v>5.570228973116591e-231</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>4.984632638657544e-231</v>
+        <v>4.987091261038268e-231</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>4.431578949062646e-231</v>
+        <v>4.434686913191132e-231</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>3.916349632965056e-231</v>
+        <v>3.919783032819076e-231</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>3.441576511164254e-231</v>
+        <v>3.445070373485722e-231</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>3.009106721221642e-231</v>
+        <v>3.012469625996292e-231</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>2.620787400349938e-231</v>
+        <v>2.623901480803476e-231</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>2.27751642386112e-231</v>
+        <v>2.280326946951844e-231</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>1.976476001008681e-231</v>
+        <v>1.978950582676838e-231</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>1.713939335711986e-231</v>
+        <v>1.716057963245781e-231</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>1.486179631889377e-231</v>
+        <v>1.487934663924975e-231</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>1.289470093459917e-231</v>
+        <v>1.290866259981444e-231</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>1.120083924342421e-231</v>
+        <v>1.121138326681962e-231</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>9.742943284558211e-232</v>
+        <v>9.750364392934225e-232</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>8.483745097186703e-232</v>
+        <v>8.488461730823366e-232</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>7.385976720500144e-232</v>
+        <v>7.388531033157119e-232</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>6.415574206233406e-232</v>
+        <v>6.416606496347214e-232</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>5.55692265160829e-232</v>
+        <v>5.557024134403123e-232</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>4.800997052584022e-232</v>
+        <v>4.8006572710702e-232</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>4.138780629566205e-232</v>
+        <v>4.138387388907075e-232</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>3.56125660296253e-232</v>
+        <v>3.561095970474463e-232</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>3.05940819318038e-232</v>
+        <v>3.059664498332769e-232</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>2.624218620625818e-232</v>
+        <v>2.624974455041085e-232</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>2.246671105706292e-232</v>
+        <v>2.247907323159879e-232</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>1.917767899895129e-232</v>
+        <v>1.919364068978545e-232</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>1.630356487788568e-232</v>
+        <v>1.632134781664727e-232</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>1.380645085333214e-232</v>
+        <v>1.382450218344329e-232</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>1.165198633319384e-232</v>
+        <v>1.166906345858587e-232</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>9.80582072538085e-233</v>
+        <v>9.820991310494217e-233</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>8.233603437802113e-233</v>
+        <v>8.246245407586464e-233</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>6.900983878362483e-233</v>
+        <v>6.910785418276614e-233</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>5.773611454971134e-233</v>
+        <v>5.780571010983014e-233</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>4.817135575536515e-233</v>
+        <v>4.821561854123276e-233</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>3.997694470014398e-233</v>
+        <v>4.000197480442323e-233</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>3.293016661204475e-233</v>
+        <v>3.294295322086079e-233</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>2.692617306169634e-233</v>
+        <v>2.693243454041701e-233</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>2.18653965577914e-233</v>
+        <v>2.186948367723249e-233</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>1.764826960904263e-233</v>
+        <v>1.765316554546785e-233</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>1.417522472414591e-233</v>
+        <v>1.418254505926693e-233</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>1.13466944118088e-233</v>
+        <v>1.135668713278523e-233</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>9.063111180736522e-234</v>
+        <v>9.074656680175927e-234</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>7.224907539628454e-234</v>
+        <v>7.235518615586325e-234</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>5.745532180581848e-234</v>
+        <v>5.75194195659502e-234</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>4.594653427887377e-234</v>
+        <v>4.595354703184676e-234</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>3.757114812515071e-234</v>
+        <v>3.753045501654332e-234</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>3.217040068443475e-234</v>
+        <v>3.211544815677199e-234</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>2.912076903780646e-234</v>
+        <v>2.908428714235181e-234</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>2.718273465371974e-234</v>
+        <v>2.716216570254576e-234</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>2.584334687113988e-234</v>
+        <v>2.582856637676002e-234</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>2.49019018157273e-234</v>
+        <v>2.488752611540261e-234</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>2.415845062745776e-234</v>
+        <v>2.414386664309475e-234</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>2.341643377002811e-234</v>
+        <v>2.340564009147834e-234</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>2.25575976494827e-234</v>
+        <v>2.25555329696522e-234</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>2.154219038939808e-234</v>
+        <v>2.155105275996015e-234</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>2.033388859219088e-234</v>
+        <v>2.03529746710027e-234</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>1.889636886027368e-234</v>
+        <v>1.892207391137632e-234</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>1.719336136770294e-234</v>
+        <v>1.721918086685689e-234</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>1.524427500940502e-234</v>
+        <v>1.526247332852164e-234</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>1.32294887368321e-234</v>
+        <v>1.323592339681347e-234</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>1.135830112635909e-234</v>
+        <v>1.135328951470774e-234</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>9.830531986853436e-235</v>
+        <v>9.818675141510242e-235</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>8.668160210864171e-235</v>
+        <v>8.655036647362219e-235</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>7.73513560484229e-235</v>
+        <v>7.724363457662314e-235</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>6.889908909446528e-235</v>
+        <v>6.883043700975954e-235</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>6.018557400815404e-235</v>
+        <v>6.015413605289948e-235</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>5.124106536673024e-235</v>
+        <v>5.124118819202024e-235</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>4.24052211845663e-235</v>
+        <v>4.243105470621186e-235</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>3.401770144555899e-235</v>
+        <v>3.406319886701295e-235</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>2.641816613360345e-235</v>
+        <v>2.647708394596052e-235</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>1.994624442102051e-235</v>
+        <v>2.001214248575334e-235</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>1.483108937858273e-235</v>
+        <v>1.489762758100233e-235</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>1.09431524159689e-235</v>
+        <v>1.10050538607714e-235</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>8.080211087874037e-236</v>
+        <v>8.13345724497087e-236</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>6.040042949004002e-236</v>
+        <v>6.081873653521969e-236</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>4.620425554061711e-236</v>
+        <v>4.649339006342959e-236</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>3.619136457746609e-236</v>
+        <v>3.634889223348607e-236</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>2.833954803607793e-236</v>
+        <v>2.837561821789819e-236</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>2.136844648240457e-236</v>
+        <v>2.130973246804498e-236</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>1.610123360701495e-236</v>
+        <v>1.599366750606726e-236</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>1.241874579946003e-236</v>
+        <v>1.230120206122317e-236</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>9.96026898051551e-237</v>
+        <v>9.859997273209965e-237</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>8.365089070951168e-237</v>
+        <v>8.297714281719024e-237</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>7.272491991544529e-237</v>
+        <v>7.242014226449401e-237</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>6.370942294603562e-237</v>
+        <v>6.371476234854914e-237</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>5.582070527035312e-237</v>
+        <v>5.60609207415331e-237</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>4.896539532764477e-237</v>
+        <v>4.937327351822271e-237</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>4.305022752844888e-237</v>
+        <v>4.356658647269362e-237</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>3.798193628332273e-237</v>
+        <v>3.855562539903991e-237</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>3.36672560028205e-237</v>
+        <v>3.425515609135282e-237</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>3.001292109748513e-237</v>
+        <v>3.057994434371229e-237</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>2.692566597787148e-237</v>
+        <v>2.744475595021017e-237</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>2.431222505453233e-237</v>
+        <v>2.476435670493633e-237</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>2.207933273801368e-237</v>
+        <v>2.245351240197365e-237</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>2.013372343887036e-237</v>
+        <v>2.042698883541412e-237</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>1.838226409456379e-237</v>
+        <v>1.859967113505239e-237</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>1.675728821555794e-237</v>
+        <v>1.690937616197814e-237</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>1.524670872006917e-237</v>
+        <v>1.534396803114364e-237</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>1.384577030360763e-237</v>
+        <v>1.389791285875119e-237</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>1.254971766168764e-237</v>
+        <v>1.256567676100741e-237</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>1.135379548982313e-237</v>
+        <v>1.134172585411847e-237</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>1.025324848352482e-237</v>
+        <v>1.02205262542873e-237</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>9.243321338306732e-238</v>
+        <v>9.196544077720183e-238</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>8.319258749682549e-238</v>
+        <v>8.264245440623043e-238</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>7.476305413163502e-238</v>
+        <v>7.418096459199337e-238</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>6.709706024264011e-238</v>
+        <v>6.652563249655734e-238</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>6.014705278495586e-238</v>
+        <v>5.962111928195983e-238</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>5.386547871371841e-238</v>
+        <v>5.341208611025942e-238</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>4.820478498406149e-238</v>
+        <v>4.784319414351215e-238</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>4.311741855110386e-238</v>
+        <v>4.285910454375931e-238</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>3.855582636997978e-238</v>
+        <v>3.84044784730575e-238</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>3.447245539582162e-238</v>
+        <v>3.442397709346139e-238</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>3.0819752583751e-238</v>
+        <v>3.08622615670152e-238</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>2.755016488890066e-238</v>
+        <v>2.766399305577396e-238</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>2.462000697903479e-238</v>
+        <v>2.47794191921165e-238</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>2.200343303245804e-238</v>
+        <v>2.21845547492938e-238</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>1.967973721843151e-238</v>
+        <v>1.986283863199001e-238</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>1.7628214183471e-238</v>
+        <v>1.779771043423342e-238</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>1.582815857409872e-238</v>
+        <v>1.597260975005863e-238</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>1.425886503683465e-238</v>
+        <v>1.437097617349809e-238</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>1.289962821819992e-238</v>
+        <v>1.297624929858538e-238</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>1.172974276471207e-238</v>
+        <v>1.177186871935043e-238</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>1.072850332289323e-238</v>
+        <v>1.074127402982787e-238</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>9.875204539261592e-239</v>
+        <v>9.867904824048273e-239</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>9.14914106033812e-239</v>
+        <v>9.135200696045079e-239</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>8.529607532643311e-239</v>
+        <v>8.526601239851202e-239</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>7.995898602696048e-239</v>
+        <v>8.025546049497987e-239</v>
       </c>
     </row>
   </sheetData>
